--- a/delta2/lib/htool/htool_patterns.xlsx
+++ b/delta2/lib/htool/htool_patterns.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/htool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B372C6-5787-D244-9261-4D8ED37215F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA6C082-E19B-F14D-82E1-E94057B6C0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -74,9 +74,6 @@
     <t>["t1482"]</t>
   </si>
   <si>
-    <t>ad_enumeration</t>
-  </si>
-  <si>
     <t>Pattern Representing Adfind AD Enumeration</t>
   </si>
   <si>
@@ -168,6 +165,27 @@
   </si>
   <si>
     <t>Adfind Command Output Redirected to File</t>
+  </si>
+  <si>
+    <t>ad_enum-ou</t>
+  </si>
+  <si>
+    <t>ad_enum-domain_trust</t>
+  </si>
+  <si>
+    <t>ad_enum-disco_dc</t>
+  </si>
+  <si>
+    <t>ad_enum-disco_domains</t>
+  </si>
+  <si>
+    <t>ad_enum-user</t>
+  </si>
+  <si>
+    <t>ad_enum-disco_device</t>
+  </si>
+  <si>
+    <t>ad_enum-disco_exfil</t>
   </si>
 </sst>
 </file>
@@ -257,14 +275,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowShown="0" dataDxfId="8">
   <autoFilter ref="A1:H10" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{A365D5D6-45D3-A949-BA4B-4557C33F3D25}" name="delta_method" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{A365D5D6-45D3-A949-BA4B-4557C33F3D25}" name="delta_method" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -590,13 +608,13 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
@@ -636,7 +654,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -648,221 +666,221 @@
         <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib/htool/htool_patterns.xlsx
+++ b/delta2/lib/htool/htool_patterns.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/htool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA6C082-E19B-F14D-82E1-E94057B6C0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006D6C49-8BB4-774E-9462-DE1571AAD4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="-21100" windowWidth="38360" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
-    <sheet name="winlol" sheetId="1" r:id="rId1"/>
+    <sheet name="htool" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -608,12 +609,12 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="51" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.1640625" customWidth="1"/>
@@ -889,4 +890,16 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037A54F-26A7-7343-86C8-06668ED1FD8C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/delta2/lib/htool/htool_patterns.xlsx
+++ b/delta2/lib/htool/htool_patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/htool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006D6C49-8BB4-774E-9462-DE1571AAD4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87838F7F-65E7-4748-BE79-953023C60C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
+    <workbookView xWindow="140" yWindow="-20940" windowWidth="38080" windowHeight="20780" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
     <sheet name="htool" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -187,6 +187,24 @@
   </si>
   <si>
     <t>ad_enum-disco_exfil</t>
+  </si>
+  <si>
+    <t>gsecdump-p0001--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>credential_dump</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'gsecdump') OR (file_name CONTAINS 'gsecdump')</t>
+  </si>
+  <si>
+    <t>["t1003"]</t>
+  </si>
+  <si>
+    <t>["t1003.001", "t1003.002", "t1003.003"]</t>
+  </si>
+  <si>
+    <t>Gsecdump Indicator</t>
   </si>
 </sst>
 </file>
@@ -273,8 +291,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H10" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H10" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H11" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
@@ -606,15 +624,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.1640625" customWidth="1"/>
@@ -882,6 +900,32 @@
       </c>
       <c r="H10" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib/htool/htool_patterns.xlsx
+++ b/delta2/lib/htool/htool_patterns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/htool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87838F7F-65E7-4748-BE79-953023C60C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8CED6D-329B-7749-9132-88AA9BF9DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="-20940" windowWidth="38080" windowHeight="20780" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20780" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
     <sheet name="htool" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -205,6 +205,18 @@
   </si>
   <si>
     <t>Gsecdump Indicator</t>
+  </si>
+  <si>
+    <t>dsquery-p0001--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['dsquery' , 'objectClass=trustedDomain'])</t>
+  </si>
+  <si>
+    <t>Dsquery Domain Trust Command</t>
+  </si>
+  <si>
+    <t>Dsquery Recon/Disco Pattern</t>
   </si>
 </sst>
 </file>
@@ -291,8 +303,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H11" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H11" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H12" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H12" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
@@ -624,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,6 +938,30 @@
       </c>
       <c r="H11" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/delta2/lib/htool/htool_patterns.xlsx
+++ b/delta2/lib/htool/htool_patterns.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/htool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8CED6D-329B-7749-9132-88AA9BF9DD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9894B3A-12E0-8E44-8B6E-A0D636130D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20780" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
+    <workbookView xWindow="140" yWindow="-21100" windowWidth="38260" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
     <sheet name="htool" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="powerview" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="255">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -217,6 +217,591 @@
   </si>
   <si>
     <t>Dsquery Recon/Disco Pattern</t>
+  </si>
+  <si>
+    <t>powerview-p0001--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>PowerView Indicator</t>
+  </si>
+  <si>
+    <t>powerview-p0002--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0003--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0004--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0005--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0006--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>ad_enum-gpo</t>
+  </si>
+  <si>
+    <t>powerview-p0007--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0008--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0009--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0010--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0011--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainDNSZone')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainPolicy')</t>
+  </si>
+  <si>
+    <t>powerview-p0012--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainDNSRecord')</t>
+  </si>
+  <si>
+    <t>PowerView Get-DomainDNSRecord Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-DomainDNSZone Cmdlet</t>
+  </si>
+  <si>
+    <t>ad_enum</t>
+  </si>
+  <si>
+    <t>powerview-p0013--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0014--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0015--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0016--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0017--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0018--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0019--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0020--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0021--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0022--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>PowerView Get-DomainUserEvent Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-DomainSite Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-DomainSubnet Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-DomainSID Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-DomainManagedSecurityGroup Cmdlet</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainObjectPropertyOutlier')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'New-DomainUser')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainUserEvent')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainSite')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainSubnet')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainSID')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'New-DomainGroup')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainManagedSecurityGroup')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Add-DomainGroupMember')</t>
+  </si>
+  <si>
+    <t>powerview-p0023--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0024--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0025--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0026--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0027--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0028--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0029--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0030--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0031--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0032--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0033--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0034--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0035--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0036--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0037--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0038--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetLocalGroup')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetLocalGroupMember')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetShare')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetLoggedon')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetSession')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-RegLoggedOn')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetComputerSiteName')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-WMIRegProxy')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-WMIRegLastLoggedOn')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-WMIRegCachedRDPConnection')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-WMIRegMountedDrive')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-WMIProcess')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-InterestingFile')</t>
+  </si>
+  <si>
+    <t>PowerView Get-NetLoggedon Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-NetSession Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-RegLoggedOn Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-NetRDPSession Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-NetComputerSiteName Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-WMIRegProxy Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-WMIRegLastLoggedOn Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-WMIRegCachedRDPConnection Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-WMIRegMountedDrive Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-WMIProcess Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Find-InterestingFile Cmdlet</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetRDPSession')</t>
+  </si>
+  <si>
+    <t>powerview-p0039--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0040--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0041--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0042--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0043--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0044--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0045--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0046--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0047--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0048--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0049--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0050--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0051--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0052--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0053--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainUserLocation')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainProcess')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainUserEvent')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-InterestingDomainShareFile')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-LocalAdminAccess')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainLocalGroupMember')</t>
+  </si>
+  <si>
+    <t>PowerView Find-DomainUserLocation Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Find-DomainProcess Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Find-DomainUserEvent Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Find-InterestingDomainShareFile Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Find-DomainLocalGroupMember Cmdlet</t>
+  </si>
+  <si>
+    <t>powerview-p0054--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0055--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0056--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0057--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0058--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0059--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0060--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Export-PowerViewCSV')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Resolve-IPAddress')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'ConvertTo-SID')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Convert-ADName')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'ConvertFrom-UACValue')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Add-RemoteConnection')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Remove-RemoteConnection')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-UserImpersonation')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-RevertToSelf')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-Kerberoast')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-PathAcl')</t>
+  </si>
+  <si>
+    <t>powerview-p0061--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0062--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0063--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0064--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0065--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0066--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0067--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0068--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0069--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0070--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0071--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>powerview-p0072--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>PowerView Export-PowerViewCSV Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Resolve-IPAddress Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView ConvertTo-SID Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Convert-ADName Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView ConvertFrom-UACValue Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Add-RemoteConnection Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Remove-RemoteConnection Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Invoke-UserImpersonation Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Invoke-RevertToSelf Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView Get-PathAcl Cmdlet</t>
+  </si>
+  <si>
+    <t>powerview-p0073--provess_create-windows_any</t>
+  </si>
+  <si>
+    <t>PowerView Domain Trust Cmdlets</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainTrust' OR 'Get-NetDomainTrust'] )</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-ForestTrust' OR 'Get-NetForestTrust'] )</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ Invoke-MapDomainTrust' OR 'Get-DomainTrustMapping'] )</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainGPO' OR 'Get-NetGPO'])</t>
+  </si>
+  <si>
+    <t>["t1615"]</t>
+  </si>
+  <si>
+    <t>PowerView GPO Enum Cmdlets</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainGPOLocalGroup' OR 'Get-NetGPOGroup'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainGPOUserLocalGroupMapping' OR 'Find-GPOLocation'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainGPOComputerLocalGroupMapping' OR 'Find-GPOComputerAdmin'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainOU' OR 'Get-NetOU')</t>
+  </si>
+  <si>
+    <t>PowerView Domain Object Cmdlets</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainController' OR 'Get-NetDomainController'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-Domain' OR 'Get-NetDomain'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-Forest' OR 'Get-NetForest'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-ForestDomain' OR 'Get-netForestDomain'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-ForestGlobalCatalog' OR 'Get-NetForestCatalog'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainObject' OR 'Get-ADObject'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Set-DomainObject' OR 'Set-ADObject'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainObjectAcl' OR 'GetObjectAcl'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Add-DomainObjectAcl' OR 'Add-ObjectAcl'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Find-InterestingDomainAcl' OR 'Invoke-ACLSScanner'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainComputer' OR 'Get-NetComputer'])</t>
+  </si>
+  <si>
+    <t>PowerView DomainObject Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerView User Object Cmdlet</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainUser' OR 'Get-NetUser'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainForeignUser' OR 'Find-ForeignUser'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainForeignGroupMember' OR 'Find-ForeignGroup'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Find-DomainLocalGroupMember' OR 'Invoke-EnumerateLocalAdmin'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainGroup' OR 'Get-NetGroup'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainGroupMember' OR 'Get-NetGroupMember'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Test-AdminAccess' OR 'Invoke-CheckLocalAdminAccess'])</t>
+  </si>
+  <si>
+    <t>["t1135"]</t>
+  </si>
+  <si>
+    <t>ad_enum-shares</t>
+  </si>
+  <si>
+    <t>PowerView Share Cmdlet</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainFileServer' OR 'Get-NetFileServer'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Get-DomainDFSShare' OR 'Get-DFSshare'])</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS ['Find-DomainShare' OR 'Invoke-ShareFinder'])</t>
+  </si>
+  <si>
+    <t>ad_enum-kerb</t>
+  </si>
+  <si>
+    <t>["T1558"]</t>
+  </si>
+  <si>
+    <t>Powerview Kerberos AD Enum Cmdlets</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS [ 'Get-DomainSPNTicket' OR 'Request-SPNTicket'])</t>
+  </si>
+  <si>
+    <t>PowerView Cmdlet</t>
   </si>
 </sst>
 </file>
@@ -252,11 +837,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -303,8 +889,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H12" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H12" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H85" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H85" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
@@ -636,21 +1222,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="88.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58" customWidth="1"/>
     <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -772,7 +1358,7 @@
         <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>14</v>
@@ -940,15 +1526,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>57</v>
@@ -956,12 +1542,1912 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="1" t="s">
         <v>58</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -974,12 +3460,780 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037A54F-26A7-7343-86C8-06668ED1FD8C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C1:C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="91.83203125" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/delta2/lib/htool/htool_patterns.xlsx
+++ b/delta2/lib/htool/htool_patterns.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib/htool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9894B3A-12E0-8E44-8B6E-A0D636130D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F71F92-5718-C541-A659-52E33C3678E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="140" yWindow="-21100" windowWidth="38260" windowHeight="21100" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
   <sheets>
     <sheet name="htool" sheetId="1" r:id="rId1"/>
-    <sheet name="powerview" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="301">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -192,9 +191,6 @@
     <t>gsecdump-p0001--process_create-windows_any</t>
   </si>
   <si>
-    <t>credential_dump</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS 'gsecdump') OR (file_name CONTAINS 'gsecdump')</t>
   </si>
   <si>
@@ -270,12 +266,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS 'Get-DomainDNSRecord')</t>
   </si>
   <si>
-    <t>PowerView Get-DomainDNSRecord Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-DomainDNSZone Cmdlet</t>
-  </si>
-  <si>
     <t>ad_enum</t>
   </si>
   <si>
@@ -309,21 +299,6 @@
     <t>powerview-p0022--provess_create-windows_any</t>
   </si>
   <si>
-    <t>PowerView Get-DomainUserEvent Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-DomainSite Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-DomainSubnet Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-DomainSID Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-DomainManagedSecurityGroup Cmdlet</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainObjectPropertyOutlier')</t>
   </si>
   <si>
@@ -438,39 +413,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS 'Find-InterestingFile')</t>
   </si>
   <si>
-    <t>PowerView Get-NetLoggedon Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-NetSession Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-RegLoggedOn Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-NetRDPSession Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-NetComputerSiteName Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-WMIRegProxy Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-WMIRegLastLoggedOn Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-WMIRegCachedRDPConnection Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-WMIRegMountedDrive Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-WMIProcess Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Find-InterestingFile Cmdlet</t>
-  </si>
-  <si>
     <t>{case_insensitive}(process_command_line CONTAINS 'Get-NetRDPSession')</t>
   </si>
   <si>
@@ -537,21 +479,6 @@
     <t>{case_insensitive}(process_command_line CONTAINS 'Find-DomainLocalGroupMember')</t>
   </si>
   <si>
-    <t>PowerView Find-DomainUserLocation Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Find-DomainProcess Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Find-DomainUserEvent Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Find-InterestingDomainShareFile Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Find-DomainLocalGroupMember Cmdlet</t>
-  </si>
-  <si>
     <t>powerview-p0054--provess_create-windows_any</t>
   </si>
   <si>
@@ -642,36 +569,6 @@
     <t>powerview-p0072--provess_create-windows_any</t>
   </si>
   <si>
-    <t>PowerView Export-PowerViewCSV Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Resolve-IPAddress Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView ConvertTo-SID Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Convert-ADName Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView ConvertFrom-UACValue Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Add-RemoteConnection Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Remove-RemoteConnection Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Invoke-UserImpersonation Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Invoke-RevertToSelf Cmdlet</t>
-  </si>
-  <si>
-    <t>PowerView Get-PathAcl Cmdlet</t>
-  </si>
-  <si>
     <t>powerview-p0073--provess_create-windows_any</t>
   </si>
   <si>
@@ -802,6 +699,246 @@
   </si>
   <si>
     <t>PowerView Cmdlet</t>
+  </si>
+  <si>
+    <t>powersploit-p0001--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>process_injection</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-DLLInjection')</t>
+  </si>
+  <si>
+    <t>["t105"']</t>
+  </si>
+  <si>
+    <t>PowerSploit Cmdlet</t>
+  </si>
+  <si>
+    <t>PowerSploit Indicator</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-ReflectivePEInjection')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-Shellcode')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Invoke-WmiCommand')</t>
+  </si>
+  <si>
+    <t>powersploit-p0002--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0003--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0004--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0005--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>["t1059"]</t>
+  </si>
+  <si>
+    <t>["t1047"]</t>
+  </si>
+  <si>
+    <t>wmi</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Out-EncodedCommand')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Out-CompressedDll')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Out-EncryptedScript')</t>
+  </si>
+  <si>
+    <t>powersploit-p0006--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0007--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'New-UserPersisten ceOption')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'New-ElevatedPersistenceOption')</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Add-Persistence')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Get-SecurityPackage'')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS 'Install-SSP')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Find-AVSignature')</t>
+  </si>
+  <si>
+    <t>persistencce</t>
+  </si>
+  <si>
+    <t>AntivirusBypass</t>
+  </si>
+  <si>
+    <t>powersploit-p0008--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0009--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0010--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0011--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0012--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0013--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Invoke-TokenManipulation')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Invoke-CredentialInjection')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Invoke-NinjaCopy')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Invoke-Mimikatz')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-Keystrokes')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-GPPPassword')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-GPPAutologon')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-TimedScreenshot')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'New-VolumeShadowCopy')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-VolumeShadowCopy')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Mount-VolumeShadowCopy')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Remove-VolumeShadowCopy')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-VaultCredential')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Out-Minidump')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-MicrophoneAudio')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Set-MasterBootRecord')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Set-CriticalProcess')</t>
+  </si>
+  <si>
+    <t>["1056"]</t>
+  </si>
+  <si>
+    <t>creds</t>
+  </si>
+  <si>
+    <t>creds-dump</t>
+  </si>
+  <si>
+    <t>creds-keystroke</t>
+  </si>
+  <si>
+    <t>creds-vss</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'Get-System')</t>
+  </si>
+  <si>
+    <t>{case_insensitive}(process_command_line CONTAINS  'PowerUp')</t>
+  </si>
+  <si>
+    <t>powersploit-p0014--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0015--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0016--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0017--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0018--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0019--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0020--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0021--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0022--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0023--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0024--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0025--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0026--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0027--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0028--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0029--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0030--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0031--process_create-windows_any</t>
+  </si>
+  <si>
+    <t>powersploit-p0032--process_create-windows_any</t>
   </si>
 </sst>
 </file>
@@ -837,12 +974,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,8 +1025,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H85" totalsRowShown="0" dataDxfId="8">
-  <autoFilter ref="A1:H85" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H117" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H117" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_category" dataDxfId="6"/>
@@ -1222,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1505,30 +1641,30 @@
         <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>44</v>
@@ -1537,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -1546,15 +1682,15 @@
         <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>44</v>
@@ -1563,7 +1699,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
@@ -1572,15 +1708,15 @@
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>44</v>
@@ -1589,7 +1725,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>11</v>
@@ -1598,15 +1734,15 @@
         <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>44</v>
@@ -1615,7 +1751,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>11</v>
@@ -1624,154 +1760,154 @@
         <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>61</v>
+        <v>185</v>
+      </c>
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>184</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>61</v>
+        <v>186</v>
+      </c>
+      <c r="E18" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>61</v>
+        <v>187</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>184</v>
+      </c>
+      <c r="H19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
+      </c>
+      <c r="B20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" t="s">
+        <v>183</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>222</v>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>188</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>18</v>
@@ -1780,1674 +1916,2444 @@
         <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
+      </c>
+      <c r="H22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>225</v>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>191</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>226</v>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>192</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
+      </c>
+      <c r="H24" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>227</v>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>193</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
+      </c>
+      <c r="H25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" t="s">
         <v>14</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
+      </c>
+      <c r="H26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>95</v>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>61</v>
+        <v>189</v>
+      </c>
+      <c r="H27" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>229</v>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>195</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>61</v>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+      <c r="H28" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>230</v>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>196</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>61</v>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>201</v>
+      </c>
+      <c r="H29" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>231</v>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>197</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>61</v>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>201</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>232</v>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>198</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>61</v>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>201</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>61</v>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>201</v>
+      </c>
+      <c r="H32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>61</v>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>201</v>
+      </c>
+      <c r="H33" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>237</v>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>203</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" t="s">
         <v>14</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H35" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" t="s">
         <v>14</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H36" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" t="s">
         <v>14</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H37" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H38" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H39" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" t="s">
         <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" t="s">
         <v>14</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H41" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H42" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" t="s">
         <v>14</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H45" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" t="s">
         <v>14</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>61</v>
+        <v>202</v>
+      </c>
+      <c r="H46" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C47" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C47" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" t="s">
         <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>61</v>
+        <v>212</v>
+      </c>
+      <c r="H47" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C48" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F48" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>61</v>
+        <v>212</v>
+      </c>
+      <c r="H48" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C49" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C49" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F49" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" t="s">
         <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>61</v>
+        <v>212</v>
+      </c>
+      <c r="H49" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C50" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F50" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" t="s">
         <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>61</v>
+        <v>212</v>
+      </c>
+      <c r="H50" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C51" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F51" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F51" t="s">
         <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>61</v>
+        <v>218</v>
+      </c>
+      <c r="H51" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="C52" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C52" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F52" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" t="s">
         <v>14</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>61</v>
+        <v>218</v>
+      </c>
+      <c r="H52" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C53" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" t="s">
         <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H53" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" t="s">
         <v>14</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H54" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H55" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" t="s">
         <v>14</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H56" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" t="s">
         <v>14</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H57" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" t="s">
         <v>14</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H58" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" t="s">
         <v>14</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H59" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" t="s">
         <v>14</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H60" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" t="s">
         <v>14</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H61" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H62" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" t="s">
         <v>14</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H63" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" t="s">
         <v>14</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H64" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" t="s">
         <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H65" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C66" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" t="s">
         <v>14</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H66" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" t="s">
         <v>14</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H67" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" t="s">
         <v>14</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H68" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" t="s">
         <v>14</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H69" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" t="s">
         <v>14</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H70" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" t="s">
         <v>14</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H71" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" t="s">
         <v>14</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H72" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" t="s">
         <v>14</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H73" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" t="s">
         <v>14</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H74" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" t="s">
         <v>14</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H75" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C76" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" t="s">
         <v>14</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H76" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C77" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" t="s">
         <v>14</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H77" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" t="s">
         <v>14</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H78" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" t="s">
         <v>14</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H79" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" t="s">
         <v>14</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H80" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C81" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" t="s">
         <v>14</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H81" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" t="s">
         <v>14</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H82" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C83" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" t="s">
         <v>14</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H83" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" t="s">
         <v>14</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="H84" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" t="s">
         <v>14</v>
       </c>
       <c r="G85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H85" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C86" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F86" t="s">
+        <v>14</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C87" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C89" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C91" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C92" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C93" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="H85" s="2" t="s">
-        <v>61</v>
+      <c r="B95" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C95" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C96" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3456,784 +4362,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E037A54F-26A7-7343-86C8-06668ED1FD8C}">
-  <dimension ref="A1:G33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C1:C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="91.83203125" customWidth="1"/>
-    <col min="6" max="6" width="57.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>